--- a/logs/poliBERTweet_seed42.xlsx
+++ b/logs/poliBERTweet_seed42.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ddore/Documents/DebateBERT/logs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ddore/Documents/RooseBERT/logs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E889E474-5151-C446-8A0F-8DDD68069573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DC6E36-ACFC-3C4F-9DB9-B9F1FEE61556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="argument detection" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,8 @@
     <sheet name="sentiment analysis" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'argument detection'!$D$1:$D$55</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ner!$D$1:$D$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'argument detection'!$D$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ner!$D$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'relation classification'!$D$1:$D$55</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'sentiment analysis'!$D$1:$D$55</definedName>
   </definedNames>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="124">
   <si>
     <t>run</t>
   </si>
@@ -233,6 +233,174 @@
   </si>
   <si>
     <t>cased</t>
+  </si>
+  <si>
+    <t>PoliBERTweet-EPOCH4-LR2e-5-WD0.1-B8-ML128</t>
+  </si>
+  <si>
+    <t>polibertweet-political-twitter-roberta-mlm</t>
+  </si>
+  <si>
+    <t>mlm</t>
+  </si>
+  <si>
+    <t>PoliBERTweet-EPOCH4-LR5e-5-WD0.01-B8-ML128</t>
+  </si>
+  <si>
+    <t>PoliBERTweet-EPOCH4-LR3e-5-WD0.01-B8-ML128</t>
+  </si>
+  <si>
+    <t>PoliBERTweet-EPOCH3-LR3e-5-WD0.1-B16-ML128</t>
+  </si>
+  <si>
+    <t>PoliBERTweet-EPOCH4-LR3e-5-WD0.01-B32-ML128</t>
+  </si>
+  <si>
+    <t>PoliBERTweet-EPOCH3-LR5e-5-WD0.1-B32-ML128</t>
+  </si>
+  <si>
+    <t>PoliBERTweet-EPOCH2-LR5e-5-WD0.01-B16-ML128</t>
+  </si>
+  <si>
+    <t>PoliBERTweet-EPOCH2-LR2e-5-WD0.01-B32-ML128</t>
+  </si>
+  <si>
+    <t>PoliBERTweet-EPOCH2-LR3e-5-WD0.01-B8-ML128</t>
+  </si>
+  <si>
+    <t>PoliBERTweet-EPOCH3-LR3e-5-WD0.1-B32-ML128</t>
+  </si>
+  <si>
+    <t>PoliBERTweet-EPOCH2-LR5e-5-WD0.1-B32-ML128</t>
+  </si>
+  <si>
+    <t>PoliBERTweet-EPOCH3-LR3e-5-WD0.1-B8-ML128</t>
+  </si>
+  <si>
+    <t>PoliBERTweet-EPOCH4-LR5e-5-WD0.01-B32-ML128</t>
+  </si>
+  <si>
+    <t>PoliBERTweet-EPOCH2-LR3e-5-WD0.1-B16-ML128</t>
+  </si>
+  <si>
+    <t>PoliBERTweet-EPOCH3-LR2e-5-WD0.1-B8-ML128</t>
+  </si>
+  <si>
+    <t>PoliBERTweet-EPOCH2-LR3e-5-WD0.01-B16-ML128</t>
+  </si>
+  <si>
+    <t>PoliBERTweet-EPOCH3-LR2e-5-WD0.01-B16-ML128</t>
+  </si>
+  <si>
+    <t>PoliBERTweet-EPOCH3-LR3e-5-WD0.01-B16-ML128</t>
+  </si>
+  <si>
+    <t>PoliBERTweet-EPOCH2-LR2e-5-WD0.01-B16-ML128</t>
+  </si>
+  <si>
+    <t>PoliBERTweet-EPOCH4-LR2e-5-WD0.1-B16-ML128</t>
+  </si>
+  <si>
+    <t>PoliBERTweet-EPOCH3-LR5e-5-WD0.1-B8-ML128</t>
+  </si>
+  <si>
+    <t>PoliBERTweet-EPOCH3-LR5e-5-WD0.1-B16-ML128</t>
+  </si>
+  <si>
+    <t>PoliBERTweet-EPOCH4-LR2e-5-WD0.1-B32-ML128</t>
+  </si>
+  <si>
+    <t>PoliBERTweet-EPOCH2-LR2e-5-WD0.1-B8-ML128</t>
+  </si>
+  <si>
+    <t>PoliBERTweet-EPOCH3-LR2e-5-WD0.01-B8-ML128</t>
+  </si>
+  <si>
+    <t>PoliBERTweet-EPOCH4-LR2e-5-WD0.01-B8-ML128</t>
+  </si>
+  <si>
+    <t>PoliBERTweet-EPOCH2-LR5e-5-WD0.1-B16-ML128</t>
+  </si>
+  <si>
+    <t>PoliBERTweet-EPOCH2-LR3e-5-WD0.01-B32-ML128</t>
+  </si>
+  <si>
+    <t>PoliBERTweet-EPOCH4-LR3e-5-WD0.1-B8-ML128</t>
+  </si>
+  <si>
+    <t>PoliBERTweet-EPOCH3-LR5e-5-WD0.01-B8-ML128</t>
+  </si>
+  <si>
+    <t>PoliBERTweet-EPOCH3-LR2e-5-WD0.1-B32-ML128</t>
+  </si>
+  <si>
+    <t>PoliBERTweet-EPOCH3-LR5e-5-WD0.01-B16-ML128</t>
+  </si>
+  <si>
+    <t>PoliBERTweet-EPOCH4-LR5e-5-WD0.1-B32-ML128</t>
+  </si>
+  <si>
+    <t>PoliBERTweet-EPOCH2-LR5e-5-WD0.01-B32-ML128</t>
+  </si>
+  <si>
+    <t>PoliBERTweet-EPOCH2-LR2e-5-WD0.1-B32-ML128</t>
+  </si>
+  <si>
+    <t>PoliBERTweet-EPOCH3-LR5e-5-WD0.01-B32-ML128</t>
+  </si>
+  <si>
+    <t>PoliBERTweet-EPOCH3-LR2e-5-WD0.1-B16-ML128</t>
+  </si>
+  <si>
+    <t>PoliBERTweet-EPOCH4-LR2e-5-WD0.01-B32-ML128</t>
+  </si>
+  <si>
+    <t>PoliBERTweet-EPOCH3-LR3e-5-WD0.01-B32-ML128</t>
+  </si>
+  <si>
+    <t>PoliBERTweet-EPOCH4-LR5e-5-WD0.1-B16-ML128</t>
+  </si>
+  <si>
+    <t>PoliBERTweet-EPOCH2-LR3e-5-WD0.1-B32-ML128</t>
+  </si>
+  <si>
+    <t>PoliBERTweet-EPOCH4-LR5e-5-WD0.01-B16-ML128</t>
+  </si>
+  <si>
+    <t>PoliBERTweet-EPOCH3-LR3e-5-WD0.01-B8-ML128</t>
+  </si>
+  <si>
+    <t>PoliBERTweet-EPOCH4-LR3e-5-WD0.1-B32-ML128</t>
+  </si>
+  <si>
+    <t>PoliBERTweet-EPOCH4-LR2e-5-WD0.01-B16-ML128</t>
+  </si>
+  <si>
+    <t>PoliBERTweet-EPOCH2-LR5e-5-WD0.1-B8-ML128</t>
+  </si>
+  <si>
+    <t>PoliBERTweet-EPOCH4-LR3e-5-WD0.1-B16-ML128</t>
+  </si>
+  <si>
+    <t>PoliBERTweet-EPOCH2-LR3e-5-WD0.1-B8-ML128</t>
+  </si>
+  <si>
+    <t>PoliBERTweet-EPOCH2-LR2e-5-WD0.1-B16-ML128</t>
+  </si>
+  <si>
+    <t>PoliBERTweet-EPOCH3-LR2e-5-WD0.01-B32-ML128</t>
+  </si>
+  <si>
+    <t>PoliBERTweet-EPOCH4-LR3e-5-WD0.01-B16-ML128</t>
+  </si>
+  <si>
+    <t>PoliBERTweet-EPOCH4-LR5e-5-WD0.1-B8-ML128</t>
+  </si>
+  <si>
+    <t>PoliBERTweet-EPOCH2-LR5e-5-WD0.01-B8-ML128</t>
+  </si>
+  <si>
+    <t>PoliBERTweet-EPOCH2-LR2e-5-WD0.01-B8-ML128</t>
   </si>
 </sst>
 </file>
@@ -303,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -315,6 +483,7 @@
     </xf>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -619,28 +788,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C55"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -678,15 +848,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D2" s="1">
         <v>4</v>
@@ -701,33 +871,33 @@
         <v>128</v>
       </c>
       <c r="H2" s="1">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I2" s="1">
-        <v>0.32632997750862103</v>
+        <v>0.44767951106458309</v>
       </c>
       <c r="J2" s="1">
-        <v>0.2347860037420488</v>
+        <v>0.40403957010128322</v>
       </c>
       <c r="K2" s="1">
-        <v>0.53490605019453008</v>
+        <v>0.58314518900988277</v>
       </c>
       <c r="L2" s="1">
-        <v>0.55863685186993461</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+        <v>0.6061567077423855</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D3" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1">
         <v>8</v>
@@ -739,30 +909,30 @@
         <v>128</v>
       </c>
       <c r="H3" s="1">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="I3" s="1">
-        <v>0.32052526585158841</v>
+        <v>0.4425233373061852</v>
       </c>
       <c r="J3" s="1">
-        <v>0.23147655536586331</v>
+        <v>0.40141889777662659</v>
       </c>
       <c r="K3" s="1">
-        <v>0.52117928631120569</v>
+        <v>0.57220175232943882</v>
       </c>
       <c r="L3" s="1">
-        <v>0.5603379604171056</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+        <v>0.60323645663799119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D4" s="1">
         <v>4</v>
@@ -771,7 +941,7 @@
         <v>8</v>
       </c>
       <c r="F4" s="5">
-        <v>3.0000000000000001E-5</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="G4" s="1">
         <v>128</v>
@@ -780,36 +950,36 @@
         <v>0.01</v>
       </c>
       <c r="I4" s="1">
-        <v>0.31544364388252538</v>
+        <v>0.44238664727649868</v>
       </c>
       <c r="J4" s="1">
-        <v>0.22641226215644819</v>
+        <v>0.40047446087246419</v>
       </c>
       <c r="K4" s="1">
-        <v>0.52031173281207321</v>
+        <v>0.58021520096507784</v>
       </c>
       <c r="L4" s="1">
-        <v>0.55987028404915229</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+        <v>0.59803766565914906</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
       </c>
       <c r="E5" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F5" s="5">
-        <v>3.0000000000000001E-5</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="G5" s="1">
         <v>128</v>
@@ -818,36 +988,36 @@
         <v>0.1</v>
       </c>
       <c r="I5" s="1">
-        <v>0.31296742683027717</v>
+        <v>0.44161768250242389</v>
       </c>
       <c r="J5" s="1">
-        <v>0.22298578107275829</v>
+        <v>0.40033537387717538</v>
       </c>
       <c r="K5" s="1">
-        <v>0.52489066192880829</v>
+        <v>0.56981942142722231</v>
       </c>
       <c r="L5" s="1">
-        <v>0.5595465081021076</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+        <v>0.60556149732620324</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D6" s="1">
         <v>4</v>
       </c>
       <c r="E6" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F6" s="5">
-        <v>5.0000000000000002E-5</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="G6" s="1">
         <v>128</v>
@@ -856,33 +1026,33 @@
         <v>0.1</v>
       </c>
       <c r="I6" s="1">
-        <v>0.30996590232510818</v>
+        <v>0.44074464869165669</v>
       </c>
       <c r="J6" s="1">
-        <v>0.22185279070305811</v>
+        <v>0.39994940867081019</v>
       </c>
       <c r="K6" s="1">
-        <v>0.51507738864451913</v>
+        <v>0.5646370097007718</v>
       </c>
       <c r="L6" s="1">
-        <v>0.56328791904573461</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+        <v>0.60774703557312248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D7" s="1">
         <v>4</v>
       </c>
       <c r="E7" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F7" s="5">
         <v>5.0000000000000002E-5</v>
@@ -894,27 +1064,27 @@
         <v>0.01</v>
       </c>
       <c r="I7" s="1">
-        <v>0.30614469256068799</v>
+        <v>0.44036850726867599</v>
       </c>
       <c r="J7" s="1">
-        <v>0.2183552920782523</v>
+        <v>0.39913192353269661</v>
       </c>
       <c r="K7" s="1">
-        <v>0.51241368972193713</v>
+        <v>0.57802216098703219</v>
       </c>
       <c r="L7" s="1">
-        <v>0.56237826281356162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+        <v>0.59623343408509644</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D8" s="1">
         <v>4</v>
@@ -923,7 +1093,7 @@
         <v>8</v>
       </c>
       <c r="F8" s="5">
-        <v>2.0000000000000002E-5</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="G8" s="1">
         <v>128</v>
@@ -932,36 +1102,36 @@
         <v>0.01</v>
       </c>
       <c r="I8" s="1">
-        <v>0.30545413093020468</v>
+        <v>0.44001103914963152</v>
       </c>
       <c r="J8" s="1">
-        <v>0.21864585065032729</v>
+        <v>0.39904091842214279</v>
       </c>
       <c r="K8" s="1">
-        <v>0.50768066850240734</v>
+        <v>0.56953784247091555</v>
       </c>
       <c r="L8" s="1">
-        <v>0.5615302781903494</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+        <v>0.60286445012787726</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D9" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9" s="1">
         <v>8</v>
       </c>
       <c r="F9" s="5">
-        <v>2.0000000000000002E-5</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="G9" s="1">
         <v>128</v>
@@ -970,33 +1140,33 @@
         <v>0.1</v>
       </c>
       <c r="I9" s="1">
-        <v>0.30505320182178841</v>
+        <v>0.43924573448304971</v>
       </c>
       <c r="J9" s="1">
-        <v>0.2185038812601014</v>
+        <v>0.39907736295360019</v>
       </c>
       <c r="K9" s="1">
-        <v>0.50606763835451174</v>
+        <v>0.56782783627669819</v>
       </c>
       <c r="L9" s="1">
-        <v>0.56153541749109614</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+        <v>0.60226923971169499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D10" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F10" s="5">
         <v>5.0000000000000002E-5</v>
@@ -1008,71 +1178,71 @@
         <v>0.1</v>
       </c>
       <c r="I10" s="1">
-        <v>0.304758363638158</v>
+        <v>0.43711647078450538</v>
       </c>
       <c r="J10" s="1">
-        <v>0.21752020624303231</v>
+        <v>0.39743843291508107</v>
       </c>
       <c r="K10" s="1">
-        <v>0.50906555257577668</v>
+        <v>0.56190517057875211</v>
       </c>
       <c r="L10" s="1">
-        <v>0.56418729667641421</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+        <v>0.60287375029063006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D11" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F11" s="5">
-        <v>5.0000000000000002E-5</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="G11" s="1">
         <v>128</v>
       </c>
       <c r="H11" s="1">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="I11" s="1">
-        <v>0.30474205909803909</v>
+        <v>0.43657409523661811</v>
       </c>
       <c r="J11" s="1">
-        <v>0.2177802788042143</v>
+        <v>0.39830154992683159</v>
       </c>
       <c r="K11" s="1">
-        <v>0.50749605718702029</v>
+        <v>0.56136986018449853</v>
       </c>
       <c r="L11" s="1">
-        <v>0.55803555368256597</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+        <v>0.60140432457568005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D12" s="1">
         <v>3</v>
       </c>
       <c r="E12" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F12" s="5">
         <v>5.0000000000000002E-5</v>
@@ -1084,150 +1254,150 @@
         <v>0.01</v>
       </c>
       <c r="I12" s="1">
-        <v>0.30262001436157882</v>
+        <v>0.43580498958075797</v>
       </c>
       <c r="J12" s="1">
-        <v>0.21481796335909689</v>
+        <v>0.39624703594188321</v>
       </c>
       <c r="K12" s="1">
-        <v>0.51184833626906223</v>
+        <v>0.56483434882684924</v>
       </c>
       <c r="L12" s="1">
-        <v>0.55790707116389748</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+        <v>0.59690304580330156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>8</v>
+      </c>
+      <c r="F13" s="5">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G13" s="1">
+        <v>128</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.43470228379325948</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.39582365669727448</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.55960858007911474</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0.60226923971169499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="1">
         <v>4</v>
-      </c>
-      <c r="E13" s="1">
-        <v>16</v>
-      </c>
-      <c r="F13" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="G13" s="1">
-        <v>128</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0.3007167423285998</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0.2140706177458441</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0.50597608071673472</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0.56327250114349436</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="1">
-        <v>3</v>
       </c>
       <c r="E14" s="1">
         <v>8</v>
       </c>
       <c r="F14" s="5">
-        <v>3.0000000000000001E-5</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="G14" s="1">
         <v>128</v>
       </c>
       <c r="H14" s="1">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="I14" s="1">
-        <v>0.29804804217097802</v>
+        <v>0.43356722937815018</v>
       </c>
       <c r="J14" s="1">
-        <v>0.21144864716026379</v>
+        <v>0.39638161628976282</v>
       </c>
       <c r="K14" s="1">
-        <v>0.50515206197674134</v>
+        <v>0.54867843239623482</v>
       </c>
       <c r="L14" s="1">
-        <v>0.55750106640490493</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+        <v>0.6085654498953732</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D15" s="1">
         <v>4</v>
       </c>
       <c r="E15" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F15" s="5">
-        <v>3.0000000000000001E-5</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="G15" s="1">
         <v>128</v>
       </c>
       <c r="H15" s="1">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I15" s="1">
-        <v>0.29552788428685323</v>
+        <v>0.43329712231748901</v>
       </c>
       <c r="J15" s="1">
-        <v>0.2099268435546455</v>
+        <v>0.39505667364012342</v>
       </c>
       <c r="K15" s="1">
-        <v>0.50010232912457431</v>
+        <v>0.55665982146574211</v>
       </c>
       <c r="L15" s="1">
-        <v>0.56031740321411871</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+        <v>0.60289235061613577</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D16" s="1">
         <v>4</v>
       </c>
       <c r="E16" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F16" s="5">
-        <v>3.0000000000000001E-5</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="G16" s="1">
         <v>128</v>
@@ -1236,71 +1406,71 @@
         <v>0.1</v>
       </c>
       <c r="I16" s="1">
-        <v>0.29524061914358929</v>
+        <v>0.43272986642774941</v>
       </c>
       <c r="J16" s="1">
-        <v>0.20941700034835831</v>
+        <v>0.39458534526335931</v>
       </c>
       <c r="K16" s="1">
-        <v>0.50127357870979727</v>
+        <v>0.55912509423222134</v>
       </c>
       <c r="L16" s="1">
-        <v>0.5625273025352171</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+        <v>0.59634503603813072</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D17" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E17" s="1">
         <v>16</v>
       </c>
       <c r="F17" s="5">
-        <v>5.0000000000000002E-5</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="G17" s="1">
         <v>128</v>
       </c>
       <c r="H17" s="1">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I17" s="1">
-        <v>0.2945963808076949</v>
+        <v>0.43234265036621461</v>
       </c>
       <c r="J17" s="1">
-        <v>0.20846232656804611</v>
+        <v>0.39412129020317521</v>
       </c>
       <c r="K17" s="1">
-        <v>0.50209310933029183</v>
+        <v>0.5549907205252913</v>
       </c>
       <c r="L17" s="1">
-        <v>0.56071312937161766</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+        <v>0.60061381074168796</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D18" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E18" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F18" s="5">
         <v>5.0000000000000002E-5</v>
@@ -1309,77 +1479,77 @@
         <v>128</v>
       </c>
       <c r="H18" s="1">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="I18" s="1">
-        <v>0.29046059402291052</v>
+        <v>0.43197658302593489</v>
       </c>
       <c r="J18" s="1">
-        <v>0.2045007589452795</v>
+        <v>0.39418537547871779</v>
       </c>
       <c r="K18" s="1">
-        <v>0.50117902899235434</v>
+        <v>0.55411979174159676</v>
       </c>
       <c r="L18" s="1">
-        <v>0.55922787145580977</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+        <v>0.60306905370843988</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D19" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E19" s="1">
         <v>8</v>
       </c>
       <c r="F19" s="5">
-        <v>3.0000000000000001E-5</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="G19" s="1">
         <v>128</v>
       </c>
       <c r="H19" s="1">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I19" s="1">
-        <v>0.29001111892313852</v>
+        <v>0.43158870638939201</v>
       </c>
       <c r="J19" s="1">
-        <v>0.20448459034050581</v>
+        <v>0.39324447698205162</v>
       </c>
       <c r="K19" s="1">
-        <v>0.4988365298219084</v>
+        <v>0.55600355668312318</v>
       </c>
       <c r="L19" s="1">
-        <v>0.55853406585499976</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+        <v>0.59724715182515697</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D20" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E20" s="1">
         <v>8</v>
       </c>
       <c r="F20" s="5">
-        <v>2.0000000000000002E-5</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="G20" s="1">
         <v>128</v>
@@ -1388,150 +1558,150 @@
         <v>0.1</v>
       </c>
       <c r="I20" s="1">
-        <v>0.2851085991851805</v>
+        <v>0.43089385771919719</v>
       </c>
       <c r="J20" s="1">
-        <v>0.20136099691092549</v>
+        <v>0.39405539959479963</v>
       </c>
       <c r="K20" s="1">
-        <v>0.48830530702178271</v>
+        <v>0.54433459890327085</v>
       </c>
       <c r="L20" s="1">
-        <v>0.55867282697516174</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+        <v>0.60805394094396648</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D21" s="1">
+        <v>4</v>
+      </c>
+      <c r="E21" s="1">
+        <v>32</v>
+      </c>
+      <c r="F21" s="5">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G21" s="1">
+        <v>128</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.42917728949754952</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.39169252350670553</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0.55050968051528937</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0.59911648453847943</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="1">
         <v>3</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E22" s="1">
         <v>8</v>
       </c>
-      <c r="F21" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="G21" s="1">
-        <v>128</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0.28231062714019362</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0.19931928243272759</v>
-      </c>
-      <c r="K21" s="1">
-        <v>0.48389348555438888</v>
-      </c>
-      <c r="L21" s="1">
-        <v>0.55917647844834228</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="1">
-        <v>4</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="F22" s="5">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G22" s="1">
+        <v>128</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.42778609108355542</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.39160572266557148</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0.54938212914979478</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0.59741455475470817</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1">
+        <v>32</v>
+      </c>
+      <c r="F23" s="5">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G23" s="1">
+        <v>128</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.42751104797880057</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0.39254519293685708</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.54546647519515845</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0.59742385491746108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2</v>
+      </c>
+      <c r="E24" s="1">
         <v>16</v>
       </c>
-      <c r="F22" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="G22" s="1">
-        <v>128</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0.28191246517899832</v>
-      </c>
-      <c r="J22" s="1">
-        <v>0.1999830708409682</v>
-      </c>
-      <c r="K22" s="1">
-        <v>0.47782210710029482</v>
-      </c>
-      <c r="L22" s="1">
-        <v>0.55861629466694762</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="1">
-        <v>4</v>
-      </c>
-      <c r="E23" s="1">
-        <v>16</v>
-      </c>
-      <c r="F23" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="G23" s="1">
-        <v>128</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0.27991022959799422</v>
-      </c>
-      <c r="J23" s="1">
-        <v>0.19827315143890031</v>
-      </c>
-      <c r="K23" s="1">
-        <v>0.47619456536601962</v>
-      </c>
-      <c r="L23" s="1">
-        <v>0.55766552402880065</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="1">
-        <v>4</v>
-      </c>
-      <c r="E24" s="1">
-        <v>32</v>
-      </c>
       <c r="F24" s="5">
-        <v>3.0000000000000001E-5</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="G24" s="1">
         <v>128</v>
@@ -1540,36 +1710,36 @@
         <v>0.1</v>
       </c>
       <c r="I24" s="1">
-        <v>0.27843639719290653</v>
+        <v>0.42733112109444021</v>
       </c>
       <c r="J24" s="1">
-        <v>0.1962756785254661</v>
+        <v>0.39077476299306541</v>
       </c>
       <c r="K24" s="1">
-        <v>0.47907040273691509</v>
+        <v>0.55190678864798259</v>
       </c>
       <c r="L24" s="1">
-        <v>0.55625221632344701</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+        <v>0.59635433620088352</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D25" s="1">
         <v>3</v>
       </c>
       <c r="E25" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F25" s="5">
-        <v>3.0000000000000001E-5</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="G25" s="1">
         <v>128</v>
@@ -1578,33 +1748,33 @@
         <v>0.1</v>
       </c>
       <c r="I25" s="1">
-        <v>0.27829506700072032</v>
+        <v>0.42673277507950491</v>
       </c>
       <c r="J25" s="1">
-        <v>0.1957856954663886</v>
+        <v>0.39159259387893619</v>
       </c>
       <c r="K25" s="1">
-        <v>0.48142890953357359</v>
+        <v>0.53862608548861823</v>
       </c>
       <c r="L25" s="1">
-        <v>0.55729549437503534</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+        <v>0.60274354801209018</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D26" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E26" s="1">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F26" s="5">
         <v>3.0000000000000001E-5</v>
@@ -1616,71 +1786,71 @@
         <v>0.01</v>
       </c>
       <c r="I26" s="1">
-        <v>0.27795999847916442</v>
+        <v>0.42613816841832719</v>
       </c>
       <c r="J26" s="1">
-        <v>0.1960939966078093</v>
+        <v>0.39007996990251181</v>
       </c>
       <c r="K26" s="1">
-        <v>0.47732078415227053</v>
+        <v>0.54254323619504885</v>
       </c>
       <c r="L26" s="1">
-        <v>0.55870366277964223</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+        <v>0.60045570797488956</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D27" s="1">
         <v>3</v>
       </c>
       <c r="E27" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F27" s="5">
-        <v>5.0000000000000002E-5</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="G27" s="1">
         <v>128</v>
       </c>
       <c r="H27" s="1">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="I27" s="1">
-        <v>0.27614875309272541</v>
+        <v>0.42585478617229838</v>
       </c>
       <c r="J27" s="1">
-        <v>0.19427420311634899</v>
+        <v>0.39116473860254453</v>
       </c>
       <c r="K27" s="1">
-        <v>0.47734831128519689</v>
+        <v>0.54489974437004773</v>
       </c>
       <c r="L27" s="1">
-        <v>0.5595465081021076</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+        <v>0.59511741455475475</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D28" s="1">
         <v>2</v>
       </c>
       <c r="E28" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F28" s="5">
         <v>5.0000000000000002E-5</v>
@@ -1692,27 +1862,27 @@
         <v>0.01</v>
       </c>
       <c r="I28" s="1">
-        <v>0.27517231503746659</v>
+        <v>0.42554099442106208</v>
       </c>
       <c r="J28" s="1">
-        <v>0.19227637063541261</v>
+        <v>0.38827921838258089</v>
       </c>
       <c r="K28" s="1">
-        <v>0.48378442425056628</v>
+        <v>0.54428719762467392</v>
       </c>
       <c r="L28" s="1">
-        <v>0.55471042609942489</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+        <v>0.60022320390606831</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D29" s="1">
         <v>3</v>
@@ -1727,77 +1897,77 @@
         <v>128</v>
       </c>
       <c r="H29" s="1">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I29" s="1">
-        <v>0.27320142597560709</v>
+        <v>0.42548023619437653</v>
       </c>
       <c r="J29" s="1">
-        <v>0.19169914750515191</v>
+        <v>0.39054413584445369</v>
       </c>
       <c r="K29" s="1">
-        <v>0.47538505821240601</v>
+        <v>0.54593992991284501</v>
       </c>
       <c r="L29" s="1">
-        <v>0.55670961408990693</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+        <v>0.59544292025110435</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D30" s="1">
         <v>3</v>
       </c>
       <c r="E30" s="1">
+        <v>8</v>
+      </c>
+      <c r="F30" s="5">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G30" s="1">
+        <v>128</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0.42362895612878571</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0.38948239255092942</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0.5403006202167473</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0.59678214368751448</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="1">
+        <v>4</v>
+      </c>
+      <c r="E31" s="1">
         <v>32</v>
       </c>
-      <c r="F30" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="G30" s="1">
-        <v>128</v>
-      </c>
-      <c r="H30" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I30" s="1">
-        <v>0.27265240466581259</v>
-      </c>
-      <c r="J30" s="1">
-        <v>0.19098214529674029</v>
-      </c>
-      <c r="K30" s="1">
-        <v>0.47641971936087979</v>
-      </c>
-      <c r="L30" s="1">
-        <v>0.56100093021343511</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="1">
-        <v>2</v>
-      </c>
-      <c r="E31" s="1">
-        <v>8</v>
-      </c>
       <c r="F31" s="5">
-        <v>5.0000000000000002E-5</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="G31" s="1">
         <v>128</v>
@@ -1806,33 +1976,33 @@
         <v>0.1</v>
       </c>
       <c r="I31" s="1">
-        <v>0.27157712322469979</v>
+        <v>0.42302405858548542</v>
       </c>
       <c r="J31" s="1">
-        <v>0.1893358812411769</v>
+        <v>0.38942791708368729</v>
       </c>
       <c r="K31" s="1">
-        <v>0.4801631102309078</v>
+        <v>0.52180289767503296</v>
       </c>
       <c r="L31" s="1">
-        <v>0.55407315280682912</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+        <v>0.6132527319228086</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D32" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E32" s="1">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F32" s="5">
         <v>3.0000000000000001E-5</v>
@@ -1844,109 +2014,109 @@
         <v>0.1</v>
       </c>
       <c r="I32" s="1">
-        <v>0.2694112026145446</v>
+        <v>0.41990105781856157</v>
       </c>
       <c r="J32" s="1">
-        <v>0.18813075041348509</v>
+        <v>0.38897062112689212</v>
       </c>
       <c r="K32" s="1">
-        <v>0.47437942023669138</v>
+        <v>0.51330791155115096</v>
       </c>
       <c r="L32" s="1">
-        <v>0.54855868310557665</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+        <v>0.61237851662404097</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D33" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E33" s="1">
+        <v>16</v>
+      </c>
+      <c r="F33" s="5">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G33" s="1">
+        <v>128</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0.41946412657257748</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0.38627891054350288</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0.53948792235666665</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0.59065333643338758</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="1">
+        <v>3</v>
+      </c>
+      <c r="E34" s="1">
         <v>8</v>
       </c>
-      <c r="F33" s="5">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="G33" s="1">
-        <v>128</v>
-      </c>
-      <c r="H33" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I33" s="1">
-        <v>0.26246495382996032</v>
-      </c>
-      <c r="J33" s="1">
-        <v>0.18202657127192179</v>
-      </c>
-      <c r="K33" s="1">
-        <v>0.47031482961452742</v>
-      </c>
-      <c r="L33" s="1">
-        <v>0.548671747722005</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D34" s="1">
-        <v>2</v>
-      </c>
-      <c r="E34" s="1">
-        <v>16</v>
-      </c>
       <c r="F34" s="5">
-        <v>5.0000000000000002E-5</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="G34" s="1">
         <v>128</v>
       </c>
       <c r="H34" s="1">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="I34" s="1">
-        <v>0.26199479873692261</v>
+        <v>0.41843384777340542</v>
       </c>
       <c r="J34" s="1">
-        <v>0.18161410307631201</v>
+        <v>0.38619624876406289</v>
       </c>
       <c r="K34" s="1">
-        <v>0.47007217195362161</v>
+        <v>0.52822805803084205</v>
       </c>
       <c r="L34" s="1">
-        <v>0.55125681599761533</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+        <v>0.5953685189490816</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D35" s="1">
         <v>2</v>
       </c>
       <c r="E35" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F35" s="5">
         <v>5.0000000000000002E-5</v>
@@ -1955,77 +2125,77 @@
         <v>128</v>
       </c>
       <c r="H35" s="1">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I35" s="1">
-        <v>0.25861396004717629</v>
+        <v>0.41761216256328598</v>
       </c>
       <c r="J35" s="1">
-        <v>0.17887640859604509</v>
+        <v>0.38533214306127611</v>
       </c>
       <c r="K35" s="1">
-        <v>0.46661796558330437</v>
+        <v>0.52958290958003307</v>
       </c>
       <c r="L35" s="1">
-        <v>0.5500593589236249</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+        <v>0.59734015345268543</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D36" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E36" s="1">
+        <v>16</v>
+      </c>
+      <c r="F36" s="5">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G36" s="1">
+        <v>128</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0.41628712641044008</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0.38475327446945612</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0.53057210587430292</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0.59162985352243669</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2</v>
+      </c>
+      <c r="E37" s="1">
         <v>32</v>
       </c>
-      <c r="F36" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="G36" s="1">
-        <v>128</v>
-      </c>
-      <c r="H36" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="I36" s="1">
-        <v>0.25833121253695901</v>
-      </c>
-      <c r="J36" s="1">
-        <v>0.18190937892378131</v>
-      </c>
-      <c r="K36" s="1">
-        <v>0.4455149773035797</v>
-      </c>
-      <c r="L36" s="1">
-        <v>0.55413996371653673</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D37" s="1">
-        <v>3</v>
-      </c>
-      <c r="E37" s="1">
-        <v>16</v>
-      </c>
       <c r="F37" s="5">
-        <v>2.0000000000000002E-5</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="G37" s="1">
         <v>128</v>
@@ -2034,147 +2204,147 @@
         <v>0.01</v>
       </c>
       <c r="I37" s="1">
-        <v>0.25767109971311658</v>
+        <v>0.41515476712450788</v>
       </c>
       <c r="J37" s="1">
-        <v>0.18010055043213749</v>
+        <v>0.38306653443831162</v>
       </c>
       <c r="K37" s="1">
-        <v>0.45275760534289677</v>
+        <v>0.52690249690100921</v>
       </c>
       <c r="L37" s="1">
-        <v>0.55096901515579788</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+        <v>0.59623343408509644</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D38" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E38" s="1">
         <v>16</v>
       </c>
       <c r="F38" s="5">
-        <v>2.0000000000000002E-5</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="G38" s="1">
         <v>128</v>
       </c>
       <c r="H38" s="1">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="I38" s="1">
-        <v>0.2574462738802582</v>
+        <v>0.41497125341269292</v>
       </c>
       <c r="J38" s="1">
-        <v>0.1795148955429301</v>
+        <v>0.38387919053074071</v>
       </c>
       <c r="K38" s="1">
-        <v>0.45510160055317572</v>
+        <v>0.52510243472855955</v>
       </c>
       <c r="L38" s="1">
-        <v>0.55155489544092628</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+        <v>0.59397349453615433</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D39" s="1">
         <v>3</v>
       </c>
       <c r="E39" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F39" s="5">
-        <v>3.0000000000000001E-5</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="G39" s="1">
         <v>128</v>
       </c>
       <c r="H39" s="1">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="I39" s="1">
-        <v>0.25634202194006611</v>
+        <v>0.4146410176891665</v>
       </c>
       <c r="J39" s="1">
-        <v>0.1782476198344298</v>
+        <v>0.38393965998154789</v>
       </c>
       <c r="K39" s="1">
-        <v>0.45622632329959367</v>
+        <v>0.52878523599144212</v>
       </c>
       <c r="L39" s="1">
-        <v>0.55178102467378287</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+        <v>0.58813299232736571</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D40" s="1">
+        <v>2</v>
+      </c>
+      <c r="E40" s="1">
+        <v>8</v>
+      </c>
+      <c r="F40" s="5">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G40" s="1">
+        <v>128</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0.41428652968138502</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0.38237506399295168</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0.52097708444389035</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0.59769355963729365</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="1">
         <v>3</v>
       </c>
-      <c r="E40" s="1">
-        <v>32</v>
-      </c>
-      <c r="F40" s="5">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="G40" s="1">
-        <v>128</v>
-      </c>
-      <c r="H40" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I40" s="1">
-        <v>0.25417091691419957</v>
-      </c>
-      <c r="J40" s="1">
-        <v>0.17664176810546031</v>
-      </c>
-      <c r="K40" s="1">
-        <v>0.45301477459018241</v>
-      </c>
-      <c r="L40" s="1">
-        <v>0.55224356174098954</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D41" s="1">
-        <v>4</v>
-      </c>
       <c r="E41" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F41" s="5">
         <v>2.0000000000000002E-5</v>
@@ -2183,36 +2353,36 @@
         <v>128</v>
       </c>
       <c r="H41" s="1">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I41" s="1">
-        <v>0.25286890587248489</v>
+        <v>0.41388428528354931</v>
       </c>
       <c r="J41" s="1">
-        <v>0.1773074602272908</v>
+        <v>0.38363135007558652</v>
       </c>
       <c r="K41" s="1">
-        <v>0.44075143687145762</v>
+        <v>0.52315116111856796</v>
       </c>
       <c r="L41" s="1">
-        <v>0.55336392930377898</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+        <v>0.59074633806091603</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D42" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E42" s="1">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F42" s="5">
         <v>2.0000000000000002E-5</v>
@@ -2221,30 +2391,30 @@
         <v>128</v>
       </c>
       <c r="H42" s="1">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I42" s="1">
-        <v>0.25216671918786682</v>
+        <v>0.41375483944721342</v>
       </c>
       <c r="J42" s="1">
-        <v>0.1737244575882014</v>
+        <v>0.38467273453526007</v>
       </c>
       <c r="K42" s="1">
-        <v>0.45978510285423457</v>
+        <v>0.49653955568085922</v>
       </c>
       <c r="L42" s="1">
-        <v>0.54505367999629972</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+        <v>0.61459195535921873</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D43" s="1">
         <v>2</v>
@@ -2262,36 +2432,36 @@
         <v>0.1</v>
       </c>
       <c r="I43" s="1">
-        <v>0.25135653239853728</v>
+        <v>0.41371562463844092</v>
       </c>
       <c r="J43" s="1">
-        <v>0.17326354920759149</v>
+        <v>0.38160629545621882</v>
       </c>
       <c r="K43" s="1">
-        <v>0.45760971133313011</v>
+        <v>0.52496582130967573</v>
       </c>
       <c r="L43" s="1">
-        <v>0.544909779575391</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+        <v>0.59368518949081606</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D44" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E44" s="1">
         <v>32</v>
       </c>
       <c r="F44" s="5">
-        <v>5.0000000000000002E-5</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="G44" s="1">
         <v>128</v>
@@ -2300,36 +2470,36 @@
         <v>0.01</v>
       </c>
       <c r="I44" s="1">
-        <v>0.24805840036686291</v>
+        <v>0.4136899033330198</v>
       </c>
       <c r="J44" s="1">
-        <v>0.17070852836895689</v>
+        <v>0.38339621165283849</v>
       </c>
       <c r="K44" s="1">
-        <v>0.45360765517598373</v>
+        <v>0.51208679519965772</v>
       </c>
       <c r="L44" s="1">
-        <v>0.54849187219586903</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+        <v>0.60161822831899558</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D45" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E45" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F45" s="5">
-        <v>5.0000000000000002E-5</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="G45" s="1">
         <v>128</v>
@@ -2338,27 +2508,27 @@
         <v>0.1</v>
       </c>
       <c r="I45" s="1">
-        <v>0.2465413193829713</v>
+        <v>0.40785783281958859</v>
       </c>
       <c r="J45" s="1">
-        <v>0.1692491965655708</v>
+        <v>0.3763056120589745</v>
       </c>
       <c r="K45" s="1">
-        <v>0.45380528203791748</v>
+        <v>0.52531158821989343</v>
       </c>
       <c r="L45" s="1">
-        <v>0.54813212114359722</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+        <v>0.59175075563822366</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D46" s="1">
         <v>2</v>
@@ -2367,80 +2537,80 @@
         <v>16</v>
       </c>
       <c r="F46" s="5">
-        <v>3.0000000000000001E-5</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="G46" s="1">
         <v>128</v>
       </c>
       <c r="H46" s="1">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="I46" s="1">
-        <v>0.24305924744063531</v>
+        <v>0.40374037906761417</v>
       </c>
       <c r="J46" s="1">
-        <v>0.1669573245836862</v>
+        <v>0.37613585591806131</v>
       </c>
       <c r="K46" s="1">
-        <v>0.4466527155965444</v>
+        <v>0.51498757808843876</v>
       </c>
       <c r="L46" s="1">
-        <v>0.54773639498609816</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+        <v>0.58477563357358753</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D47" s="1">
+        <v>3</v>
+      </c>
+      <c r="E47" s="1">
+        <v>32</v>
+      </c>
+      <c r="F47" s="5">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G47" s="1">
+        <v>128</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0.40155772486912378</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0.37819263226648181</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0.46991627650668782</v>
+      </c>
+      <c r="L47" s="1">
+        <v>0.61749360613810744</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" s="1">
         <v>2</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E48" s="1">
         <v>16</v>
-      </c>
-      <c r="F47" s="5">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="G47" s="1">
-        <v>128</v>
-      </c>
-      <c r="H47" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I47" s="1">
-        <v>0.24257062875142349</v>
-      </c>
-      <c r="J47" s="1">
-        <v>0.16652361379687899</v>
-      </c>
-      <c r="K47" s="1">
-        <v>0.44645508873461071</v>
-      </c>
-      <c r="L47" s="1">
-        <v>0.54780834519655253</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D48" s="1">
-        <v>3</v>
-      </c>
-      <c r="E48" s="1">
-        <v>32</v>
       </c>
       <c r="F48" s="5">
         <v>2.0000000000000002E-5</v>
@@ -2452,103 +2622,103 @@
         <v>0.1</v>
       </c>
       <c r="I48" s="1">
-        <v>0.2387795104103145</v>
+        <v>0.40140135608981758</v>
       </c>
       <c r="J48" s="1">
-        <v>0.16533283129240561</v>
+        <v>0.37562031207695079</v>
       </c>
       <c r="K48" s="1">
-        <v>0.42980745668141862</v>
+        <v>0.50763772192897139</v>
       </c>
       <c r="L48" s="1">
-        <v>0.5463847588897055</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+        <v>0.58357591257847008</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D49" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E49" s="1">
         <v>32</v>
       </c>
       <c r="F49" s="5">
-        <v>2.0000000000000002E-5</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="G49" s="1">
         <v>128</v>
       </c>
       <c r="H49" s="1">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I49" s="1">
-        <v>0.23505372635178201</v>
+        <v>0.39987005958954391</v>
       </c>
       <c r="J49" s="1">
-        <v>0.1629248065647263</v>
+        <v>0.3743424507951868</v>
       </c>
       <c r="K49" s="1">
-        <v>0.42187889437869019</v>
+        <v>0.4945456575434507</v>
       </c>
       <c r="L49" s="1">
-        <v>0.5483582503764538</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+        <v>0.59286677516856545</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D50" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E50" s="1">
         <v>32</v>
       </c>
       <c r="F50" s="5">
-        <v>3.0000000000000001E-5</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="G50" s="1">
         <v>128</v>
       </c>
       <c r="H50" s="1">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="I50" s="1">
-        <v>0.23404177089998421</v>
+        <v>0.39985610974052921</v>
       </c>
       <c r="J50" s="1">
-        <v>0.15973478312870171</v>
+        <v>0.37586368935502168</v>
       </c>
       <c r="K50" s="1">
-        <v>0.43788711900727578</v>
+        <v>0.46862890142728852</v>
       </c>
       <c r="L50" s="1">
-        <v>0.53770447992846093</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+        <v>0.61673099279237387</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D51" s="1">
         <v>2</v>
@@ -2557,42 +2727,42 @@
         <v>32</v>
       </c>
       <c r="F51" s="5">
-        <v>3.0000000000000001E-5</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="G51" s="1">
         <v>128</v>
       </c>
       <c r="H51" s="1">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I51" s="1">
-        <v>0.23196739369108141</v>
+        <v>0.38720583321115248</v>
       </c>
       <c r="J51" s="1">
-        <v>0.1580783354799114</v>
+        <v>0.3724992487734321</v>
       </c>
       <c r="K51" s="1">
-        <v>0.4356957198599587</v>
+        <v>0.44837436434436928</v>
       </c>
       <c r="L51" s="1">
-        <v>0.53910750903232108</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+        <v>0.60848174843059755</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D52" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E52" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F52" s="5">
         <v>2.0000000000000002E-5</v>
@@ -2604,103 +2774,103 @@
         <v>0.01</v>
       </c>
       <c r="I52" s="1">
-        <v>0.22827317070676051</v>
+        <v>0.38193315071131467</v>
       </c>
       <c r="J52" s="1">
-        <v>0.15569559008963679</v>
+        <v>0.36982996740412222</v>
       </c>
       <c r="K52" s="1">
-        <v>0.4276000499078888</v>
+        <v>0.43724256278096768</v>
       </c>
       <c r="L52" s="1">
-        <v>0.53860385755914053</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+        <v>0.61747500581260173</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D53" s="1">
         <v>2</v>
       </c>
       <c r="E53" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F53" s="5">
-        <v>2.0000000000000002E-5</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="G53" s="1">
         <v>128</v>
       </c>
       <c r="H53" s="1">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="I53" s="1">
-        <v>0.22797778880267869</v>
+        <v>0.37852821227901218</v>
       </c>
       <c r="J53" s="1">
-        <v>0.15552117336494881</v>
+        <v>0.35974765676053932</v>
       </c>
       <c r="K53" s="1">
-        <v>0.42685457325912579</v>
+        <v>0.45888523176515089</v>
       </c>
       <c r="L53" s="1">
-        <v>0.53799742007102513</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+        <v>0.59581492676121828</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D54" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E54" s="1">
         <v>32</v>
       </c>
       <c r="F54" s="5">
-        <v>2.0000000000000002E-5</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="G54" s="1">
         <v>128</v>
       </c>
       <c r="H54" s="1">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="I54" s="1">
-        <v>0.22627242503885761</v>
+        <v>0.37644461476854002</v>
       </c>
       <c r="J54" s="1">
-        <v>0.1540096262385551</v>
+        <v>0.35183822792623692</v>
       </c>
       <c r="K54" s="1">
-        <v>0.4263982811100735</v>
+        <v>0.47455261449388331</v>
       </c>
       <c r="L54" s="1">
-        <v>0.53197415959584538</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+        <v>0.59015112764473376</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D55" s="1">
         <v>2</v>
@@ -2718,21 +2888,21 @@
         <v>0.01</v>
       </c>
       <c r="I55" s="1">
-        <v>0.22420992516508681</v>
+        <v>0.3426610986045443</v>
       </c>
       <c r="J55" s="1">
-        <v>0.1522447134075669</v>
+        <v>0.35739330158537858</v>
       </c>
       <c r="K55" s="1">
-        <v>0.42540865076057172</v>
+        <v>0.3838120405910489</v>
       </c>
       <c r="L55" s="1">
-        <v>0.53266282589590863</v>
+        <v>0.60914205998604976</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L73">
-    <sortCondition descending="1" ref="I1:I73"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L1048576">
+    <sortCondition descending="1" ref="I1:I1048576"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4865,9 +5035,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A524928-A98D-5945-914E-E5F36D4AA07D}">
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C55"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4926,13 +5096,13 @@
     </row>
     <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D2" s="1">
         <v>4</v>
@@ -4947,30 +5117,30 @@
         <v>128</v>
       </c>
       <c r="H2" s="1">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="I2" s="1">
-        <v>0.244526504345527</v>
+        <v>0.34717302202753558</v>
       </c>
       <c r="J2" s="1">
-        <v>0.1899434037389546</v>
+        <v>0.32338833837856251</v>
       </c>
       <c r="K2" s="1">
-        <v>0.34837637187119119</v>
+        <v>0.42050364907700027</v>
       </c>
       <c r="L2" s="1">
-        <v>0.79439252336448596</v>
+        <v>0.79411110051194</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D3" s="1">
         <v>4</v>
@@ -4985,30 +5155,30 @@
         <v>128</v>
       </c>
       <c r="H3" s="1">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I3" s="1">
-        <v>0.24452650434552731</v>
+        <v>0.34710853248486417</v>
       </c>
       <c r="J3" s="1">
-        <v>0.1899434037389546</v>
+        <v>0.3233400197200334</v>
       </c>
       <c r="K3" s="1">
-        <v>0.34837637187119119</v>
+        <v>0.42042077958776691</v>
       </c>
       <c r="L3" s="1">
-        <v>0.79439252336448596</v>
+        <v>0.79398391045820216</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -5023,30 +5193,30 @@
         <v>128</v>
       </c>
       <c r="H4" s="1">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I4" s="1">
-        <v>0.12927855134398819</v>
+        <v>0.22679402360434159</v>
       </c>
       <c r="J4" s="1">
-        <v>9.7281184560841921E-2</v>
+        <v>0.33957374119017902</v>
       </c>
       <c r="K4" s="1">
-        <v>0.20453287490920649</v>
+        <v>0.2898260258950548</v>
       </c>
       <c r="L4" s="1">
-        <v>0.74452716616505621</v>
+        <v>0.74301249642277978</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -5061,30 +5231,30 @@
         <v>128</v>
       </c>
       <c r="H5" s="1">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="I5" s="1">
-        <v>0.12907240828070229</v>
+        <v>0.22677579415460039</v>
       </c>
       <c r="J5" s="1">
-        <v>9.7108651779613461E-2</v>
+        <v>0.33926479535809573</v>
       </c>
       <c r="K5" s="1">
-        <v>0.20427685852415789</v>
+        <v>0.28991097930890342</v>
       </c>
       <c r="L5" s="1">
-        <v>0.74449548550609856</v>
+        <v>0.74301249642277978</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D6" s="1">
         <v>4</v>
@@ -5099,30 +5269,30 @@
         <v>128</v>
       </c>
       <c r="H6" s="1">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I6" s="1">
-        <v>6.7914688258361056E-2</v>
+        <v>0.19777756011996861</v>
       </c>
       <c r="J6" s="1">
-        <v>6.3436718118271299E-2</v>
+        <v>0.21248009110958471</v>
       </c>
       <c r="K6" s="1">
-        <v>9.6370739542650408E-2</v>
+        <v>0.23884244208847169</v>
       </c>
       <c r="L6" s="1">
-        <v>0.7201013781086647</v>
+        <v>0.72018188177684506</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D7" s="1">
         <v>4</v>
@@ -5137,30 +5307,30 @@
         <v>128</v>
       </c>
       <c r="H7" s="1">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="I7" s="1">
-        <v>6.7887054594669552E-2</v>
+        <v>0.1977714858516067</v>
       </c>
       <c r="J7" s="1">
-        <v>6.3348276944700424E-2</v>
+        <v>0.2124892619194361</v>
       </c>
       <c r="K7" s="1">
-        <v>9.6370739542650408E-2</v>
+        <v>0.2388196479875849</v>
       </c>
       <c r="L7" s="1">
-        <v>0.72013305876762235</v>
+        <v>0.72015008426341065</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D8" s="1">
         <v>4</v>
@@ -5175,36 +5345,36 @@
         <v>128</v>
       </c>
       <c r="H8" s="1">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I8" s="1">
-        <v>3.2155343166971242E-3</v>
+        <v>0.12545809922542819</v>
       </c>
       <c r="J8" s="1">
-        <v>2.0458154997442732E-3</v>
+        <v>0.16059505997887411</v>
       </c>
       <c r="K8" s="1">
-        <v>8.1349184885494523E-3</v>
+        <v>0.16091668324937969</v>
       </c>
       <c r="L8" s="1">
-        <v>0.6679550134642801</v>
+        <v>0.6653629686158542</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D9" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E9" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F9" s="5">
         <v>5.0000000000000002E-5</v>
@@ -5213,30 +5383,30 @@
         <v>128</v>
       </c>
       <c r="H9" s="1">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="I9" s="1">
-        <v>2.9183979487883878E-3</v>
+        <v>0.1162804815215128</v>
       </c>
       <c r="J9" s="1">
-        <v>1.8680175013805699E-3</v>
+        <v>0.13822665445605539</v>
       </c>
       <c r="K9" s="1">
-        <v>7.4476332651817563E-3</v>
+        <v>0.144185656027433</v>
       </c>
       <c r="L9" s="1">
-        <v>0.66443846031997467</v>
+        <v>0.64962319946580183</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
@@ -5254,33 +5424,33 @@
         <v>0.1</v>
       </c>
       <c r="I10" s="1">
-        <v>1.4920919128618331E-3</v>
+        <v>0.1162772930492494</v>
       </c>
       <c r="J10" s="1">
-        <v>9.5292548122736804E-4</v>
+        <v>0.13822471297523251</v>
       </c>
       <c r="K10" s="1">
-        <v>3.4364261168384879E-3</v>
+        <v>0.144185656027433</v>
       </c>
       <c r="L10" s="1">
-        <v>0.65344527166165056</v>
+        <v>0.64962319946580183</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D11" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E11" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F11" s="5">
         <v>5.0000000000000002E-5</v>
@@ -5292,27 +5462,27 @@
         <v>0.01</v>
       </c>
       <c r="I11" s="1">
-        <v>1.4920919128618331E-3</v>
+        <v>0.1152971570292356</v>
       </c>
       <c r="J11" s="1">
-        <v>9.5292548122736804E-4</v>
+        <v>0.14998646102299959</v>
       </c>
       <c r="K11" s="1">
-        <v>3.4364261168384879E-3</v>
+        <v>0.1505430161251993</v>
       </c>
       <c r="L11" s="1">
-        <v>0.65344527166165056</v>
+        <v>0.65283474832268118</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D12" s="1">
         <v>4</v>
@@ -5327,30 +5497,30 @@
         <v>128</v>
       </c>
       <c r="H12" s="1">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I12" s="1">
-        <v>1.3615365912958909E-3</v>
+        <v>0.1123532710874697</v>
       </c>
       <c r="J12" s="1">
-        <v>8.6419753086419747E-4</v>
+        <v>0.14112435167752971</v>
       </c>
       <c r="K12" s="1">
-        <v>3.2073310423825891E-3</v>
+        <v>0.13649863321785879</v>
       </c>
       <c r="L12" s="1">
-        <v>0.64039284017107556</v>
+        <v>0.64221437883557508</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D13" s="1">
         <v>4</v>
@@ -5365,30 +5535,30 @@
         <v>128</v>
       </c>
       <c r="H13" s="1">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="I13" s="1">
-        <v>1.3615365912958909E-3</v>
+        <v>0.1123532710874697</v>
       </c>
       <c r="J13" s="1">
-        <v>8.6419753086419747E-4</v>
+        <v>0.14112435167752971</v>
       </c>
       <c r="K13" s="1">
-        <v>3.2073310423825891E-3</v>
+        <v>0.13649863321785879</v>
       </c>
       <c r="L13" s="1">
-        <v>0.64039284017107556</v>
+        <v>0.64221437883557508</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D14" s="1">
         <v>3</v>
@@ -5406,27 +5576,27 @@
         <v>0.1</v>
       </c>
       <c r="I14" s="1">
-        <v>1.083530338849488E-3</v>
+        <v>0.106278918810235</v>
       </c>
       <c r="J14" s="1">
-        <v>6.9013112491373351E-4</v>
+        <v>0.14533113967678171</v>
       </c>
       <c r="K14" s="1">
-        <v>2.5200458190148909E-3</v>
+        <v>0.133830325467335</v>
       </c>
       <c r="L14" s="1">
-        <v>0.63928401710755589</v>
+        <v>0.63760373938757986</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D15" s="1">
         <v>3</v>
@@ -5444,36 +5614,36 @@
         <v>0.01</v>
       </c>
       <c r="I15" s="1">
-        <v>1.083530338849488E-3</v>
+        <v>0.1062535634163236</v>
       </c>
       <c r="J15" s="1">
-        <v>6.9013112491373351E-4</v>
+        <v>0.14532451814233441</v>
       </c>
       <c r="K15" s="1">
-        <v>2.5200458190148909E-3</v>
+        <v>0.13379936571501311</v>
       </c>
       <c r="L15" s="1">
-        <v>0.63928401710755589</v>
+        <v>0.63757194187414545</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D16" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E16" s="1">
         <v>16</v>
       </c>
       <c r="F16" s="5">
-        <v>3.0000000000000001E-5</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="G16" s="1">
         <v>128</v>
@@ -5482,106 +5652,106 @@
         <v>0.1</v>
       </c>
       <c r="I16" s="1">
-        <v>0</v>
+        <v>5.7630728069811982E-2</v>
       </c>
       <c r="J16" s="1">
-        <v>0</v>
+        <v>4.508525845418615E-2</v>
       </c>
       <c r="K16" s="1">
-        <v>0</v>
+        <v>8.1253965904527742E-2</v>
       </c>
       <c r="L16" s="1">
-        <v>0.59033739901789961</v>
+        <v>0.59159273744793162</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="1">
-        <v>4</v>
-      </c>
-      <c r="E17" s="1">
-        <v>32</v>
-      </c>
       <c r="F17" s="5">
-        <v>3.0000000000000001E-5</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="G17" s="1">
         <v>128</v>
       </c>
       <c r="H17" s="1">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="I17" s="1">
-        <v>0</v>
+        <v>5.7630728069811982E-2</v>
       </c>
       <c r="J17" s="1">
-        <v>0</v>
+        <v>4.508525845418615E-2</v>
       </c>
       <c r="K17" s="1">
-        <v>0</v>
+        <v>8.1253965904527742E-2</v>
       </c>
       <c r="L17" s="1">
-        <v>0.57253286868366859</v>
+        <v>0.59159273744793162</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D18" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E18" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F18" s="5">
-        <v>5.0000000000000002E-5</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="G18" s="1">
         <v>128</v>
       </c>
       <c r="H18" s="1">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="I18" s="1">
-        <v>0</v>
+        <v>5.6292020803076617E-2</v>
       </c>
       <c r="J18" s="1">
-        <v>0</v>
+        <v>4.5061506589801889E-2</v>
       </c>
       <c r="K18" s="1">
-        <v>0</v>
+        <v>7.4996676520611733E-2</v>
       </c>
       <c r="L18" s="1">
-        <v>0.57253286868366859</v>
+        <v>0.58812680848357657</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D19" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E19" s="1">
         <v>16</v>
@@ -5596,65 +5766,65 @@
         <v>0.1</v>
       </c>
       <c r="I19" s="1">
-        <v>0</v>
+        <v>5.6281787789008393E-2</v>
       </c>
       <c r="J19" s="1">
-        <v>0</v>
+        <v>4.5048762022988298E-2</v>
       </c>
       <c r="K19" s="1">
-        <v>0</v>
+        <v>7.4996676520611733E-2</v>
       </c>
       <c r="L19" s="1">
-        <v>0.57256454934262635</v>
+        <v>0.58812680848357657</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D20" s="1">
         <v>3</v>
       </c>
       <c r="E20" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F20" s="5">
-        <v>5.0000000000000002E-5</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="G20" s="1">
         <v>128</v>
       </c>
       <c r="H20" s="1">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I20" s="1">
-        <v>0</v>
+        <v>4.977194748494803E-2</v>
       </c>
       <c r="J20" s="1">
-        <v>0</v>
+        <v>4.5288205513621893E-2</v>
       </c>
       <c r="K20" s="1">
-        <v>0</v>
+        <v>6.1351909184726529E-2</v>
       </c>
       <c r="L20" s="1">
-        <v>0.59372722952637413</v>
+        <v>0.580018442557792</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D21" s="1">
         <v>3</v>
@@ -5672,30 +5842,30 @@
         <v>0.01</v>
       </c>
       <c r="I21" s="1">
-        <v>0</v>
+        <v>4.977194748494803E-2</v>
       </c>
       <c r="J21" s="1">
-        <v>0</v>
+        <v>4.5288205513621893E-2</v>
       </c>
       <c r="K21" s="1">
-        <v>0</v>
+        <v>6.1351909184726529E-2</v>
       </c>
       <c r="L21" s="1">
-        <v>0.57991446222081422</v>
+        <v>0.580018442557792</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D22" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E22" s="1">
         <v>32</v>
@@ -5710,36 +5880,36 @@
         <v>0.01</v>
       </c>
       <c r="I22" s="1">
-        <v>0</v>
+        <v>4.069111306519424E-2</v>
       </c>
       <c r="J22" s="1">
-        <v>0</v>
+        <v>4.7854818691087188E-2</v>
       </c>
       <c r="K22" s="1">
-        <v>0</v>
+        <v>5.3818369453044371E-2</v>
       </c>
       <c r="L22" s="1">
-        <v>0.57253286868366859</v>
+        <v>0.57537600559636237</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D23" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E23" s="1">
         <v>32</v>
       </c>
       <c r="F23" s="5">
-        <v>3.0000000000000001E-5</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="G23" s="1">
         <v>128</v>
@@ -5748,112 +5918,112 @@
         <v>0.1</v>
       </c>
       <c r="I23" s="1">
-        <v>0</v>
+        <v>4.069111306519424E-2</v>
       </c>
       <c r="J23" s="1">
-        <v>0</v>
+        <v>4.7854818691087188E-2</v>
       </c>
       <c r="K23" s="1">
-        <v>0</v>
+        <v>5.3818369453044371E-2</v>
       </c>
       <c r="L23" s="1">
-        <v>0.57253286868366859</v>
+        <v>0.57537600559636237</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D24" s="1">
         <v>2</v>
       </c>
       <c r="E24" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F24" s="5">
-        <v>5.0000000000000002E-5</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="G24" s="1">
         <v>128</v>
       </c>
       <c r="H24" s="1">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="I24" s="1">
-        <v>0</v>
+        <v>3.8730113333389778E-2</v>
       </c>
       <c r="J24" s="1">
-        <v>0</v>
+        <v>4.2402712174545998E-2</v>
       </c>
       <c r="K24" s="1">
-        <v>0</v>
+        <v>5.278637770897833E-2</v>
       </c>
       <c r="L24" s="1">
-        <v>0.57253286868366859</v>
+        <v>0.57474005532767336</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D25" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E25" s="1">
         <v>32</v>
       </c>
       <c r="F25" s="5">
-        <v>3.0000000000000001E-5</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="G25" s="1">
         <v>128</v>
       </c>
       <c r="H25" s="1">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I25" s="1">
-        <v>0</v>
+        <v>3.8730113333389778E-2</v>
       </c>
       <c r="J25" s="1">
-        <v>0</v>
+        <v>4.2402712174545998E-2</v>
       </c>
       <c r="K25" s="1">
-        <v>0</v>
+        <v>5.278637770897833E-2</v>
       </c>
       <c r="L25" s="1">
-        <v>0.57253286868366859</v>
+        <v>0.57474005532767336</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D26" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E26" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F26" s="5">
-        <v>2.0000000000000002E-5</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="G26" s="1">
         <v>128</v>
@@ -5862,33 +6032,33 @@
         <v>0.01</v>
       </c>
       <c r="I26" s="1">
-        <v>0</v>
+        <v>3.8415876521611582E-2</v>
       </c>
       <c r="J26" s="1">
-        <v>0</v>
+        <v>3.024637945549153E-2</v>
       </c>
       <c r="K26" s="1">
-        <v>0</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="L26" s="1">
-        <v>0.57253286868366859</v>
+        <v>0.57464466278737003</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D27" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E27" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F27" s="5">
         <v>2.0000000000000002E-5</v>
@@ -5897,39 +6067,39 @@
         <v>128</v>
       </c>
       <c r="H27" s="1">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I27" s="1">
-        <v>0</v>
+        <v>3.8415876521611582E-2</v>
       </c>
       <c r="J27" s="1">
-        <v>0</v>
+        <v>3.024637945549153E-2</v>
       </c>
       <c r="K27" s="1">
-        <v>0</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="L27" s="1">
-        <v>0.57253286868366859</v>
+        <v>0.57464466278737003</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D28" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E28" s="1">
         <v>16</v>
       </c>
       <c r="F28" s="5">
-        <v>3.0000000000000001E-5</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="G28" s="1">
         <v>128</v>
@@ -5938,74 +6108,74 @@
         <v>0.01</v>
       </c>
       <c r="I28" s="1">
-        <v>0</v>
+        <v>3.8415876521611582E-2</v>
       </c>
       <c r="J28" s="1">
-        <v>0</v>
+        <v>3.024637945549153E-2</v>
       </c>
       <c r="K28" s="1">
-        <v>0</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="L28" s="1">
-        <v>0.57256454934262635</v>
+        <v>0.57464466278737003</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D29" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E29" s="1">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F29" s="5">
-        <v>5.0000000000000002E-5</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="G29" s="1">
         <v>128</v>
       </c>
       <c r="H29" s="1">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I29" s="1">
-        <v>0</v>
+        <v>3.8415876521611582E-2</v>
       </c>
       <c r="J29" s="1">
-        <v>0</v>
+        <v>3.024637945549153E-2</v>
       </c>
       <c r="K29" s="1">
-        <v>0</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="L29" s="1">
-        <v>0.57437034690321553</v>
+        <v>0.57464466278737003</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D30" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E30" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F30" s="5">
-        <v>2.0000000000000002E-5</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="G30" s="1">
         <v>128</v>
@@ -6014,74 +6184,74 @@
         <v>0.1</v>
       </c>
       <c r="I30" s="1">
-        <v>0</v>
+        <v>3.8414325023195903E-2</v>
       </c>
       <c r="J30" s="1">
-        <v>0</v>
+        <v>3.0244455936177372E-2</v>
       </c>
       <c r="K30" s="1">
-        <v>0</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="L30" s="1">
-        <v>0.57253286868366859</v>
+        <v>0.57464466278737003</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D31" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E31" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F31" s="5">
-        <v>5.0000000000000002E-5</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="G31" s="1">
         <v>128</v>
       </c>
       <c r="H31" s="1">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="I31" s="1">
-        <v>0</v>
+        <v>3.8414325023195903E-2</v>
       </c>
       <c r="J31" s="1">
-        <v>0</v>
+        <v>3.0244455936177372E-2</v>
       </c>
       <c r="K31" s="1">
-        <v>0</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="L31" s="1">
-        <v>0.59372722952637413</v>
+        <v>0.57464466278737003</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D32" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E32" s="1">
         <v>32</v>
       </c>
       <c r="F32" s="5">
-        <v>3.0000000000000001E-5</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="G32" s="1">
         <v>128</v>
@@ -6090,36 +6260,36 @@
         <v>0.1</v>
       </c>
       <c r="I32" s="1">
-        <v>0</v>
+        <v>3.8414325023195903E-2</v>
       </c>
       <c r="J32" s="1">
-        <v>0</v>
+        <v>3.0244455936177372E-2</v>
       </c>
       <c r="K32" s="1">
-        <v>0</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="L32" s="1">
-        <v>0.57253286868366859</v>
+        <v>0.57464466278737003</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D33" s="1">
         <v>2</v>
       </c>
       <c r="E33" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F33" s="5">
-        <v>2.0000000000000002E-5</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="G33" s="1">
         <v>128</v>
@@ -6128,33 +6298,33 @@
         <v>0.01</v>
       </c>
       <c r="I33" s="1">
-        <v>0</v>
+        <v>3.8414325023195903E-2</v>
       </c>
       <c r="J33" s="1">
-        <v>0</v>
+        <v>3.0244455936177372E-2</v>
       </c>
       <c r="K33" s="1">
-        <v>0</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="L33" s="1">
-        <v>0.57253286868366859</v>
+        <v>0.57464466278737003</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D34" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E34" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F34" s="5">
         <v>3.0000000000000001E-5</v>
@@ -6166,30 +6336,30 @@
         <v>0.1</v>
       </c>
       <c r="I34" s="1">
-        <v>0</v>
+        <v>3.8414325023195903E-2</v>
       </c>
       <c r="J34" s="1">
-        <v>0</v>
+        <v>3.0244455936177372E-2</v>
       </c>
       <c r="K34" s="1">
-        <v>0</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="L34" s="1">
-        <v>0.57253286868366859</v>
+        <v>0.57464466278737003</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D35" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E35" s="1">
         <v>32</v>
@@ -6204,68 +6374,68 @@
         <v>0.1</v>
       </c>
       <c r="I35" s="1">
-        <v>0</v>
+        <v>3.8414325023195903E-2</v>
       </c>
       <c r="J35" s="1">
-        <v>0</v>
+        <v>3.0244455936177372E-2</v>
       </c>
       <c r="K35" s="1">
-        <v>0</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="L35" s="1">
-        <v>0.57253286868366859</v>
+        <v>0.57464466278737003</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D36" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E36" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F36" s="5">
-        <v>2.0000000000000002E-5</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="G36" s="1">
         <v>128</v>
       </c>
       <c r="H36" s="1">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I36" s="1">
-        <v>0</v>
+        <v>3.8414325023195903E-2</v>
       </c>
       <c r="J36" s="1">
-        <v>0</v>
+        <v>3.0244455936177372E-2</v>
       </c>
       <c r="K36" s="1">
-        <v>0</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="L36" s="1">
-        <v>0.57253286868366859</v>
+        <v>0.57464466278737003</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D37" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E37" s="1">
         <v>16</v>
@@ -6280,36 +6450,36 @@
         <v>0.01</v>
       </c>
       <c r="I37" s="1">
-        <v>0</v>
+        <v>3.8414325023195903E-2</v>
       </c>
       <c r="J37" s="1">
-        <v>0</v>
+        <v>3.0244455936177372E-2</v>
       </c>
       <c r="K37" s="1">
-        <v>0</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="L37" s="1">
-        <v>0.59024235704102646</v>
+        <v>0.57464466278737003</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D38" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E38" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F38" s="5">
-        <v>3.0000000000000001E-5</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="G38" s="1">
         <v>128</v>
@@ -6318,68 +6488,68 @@
         <v>0.01</v>
       </c>
       <c r="I38" s="1">
-        <v>0</v>
+        <v>3.8414325023195903E-2</v>
       </c>
       <c r="J38" s="1">
-        <v>0</v>
+        <v>3.0244455936177372E-2</v>
       </c>
       <c r="K38" s="1">
-        <v>0</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="L38" s="1">
-        <v>0.57253286868366859</v>
+        <v>0.57464466278737003</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D39" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E39" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F39" s="5">
-        <v>5.0000000000000002E-5</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="G39" s="1">
         <v>128</v>
       </c>
       <c r="H39" s="1">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="I39" s="1">
-        <v>0</v>
+        <v>3.8414325023195903E-2</v>
       </c>
       <c r="J39" s="1">
-        <v>0</v>
+        <v>3.0244455936177372E-2</v>
       </c>
       <c r="K39" s="1">
-        <v>0</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="L39" s="1">
-        <v>0.57433866624425789</v>
+        <v>0.57464466278737003</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D40" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E40" s="1">
         <v>16</v>
@@ -6394,36 +6564,36 @@
         <v>0.01</v>
       </c>
       <c r="I40" s="1">
-        <v>0</v>
+        <v>3.8414325023195903E-2</v>
       </c>
       <c r="J40" s="1">
-        <v>0</v>
+        <v>3.0244455936177372E-2</v>
       </c>
       <c r="K40" s="1">
-        <v>0</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="L40" s="1">
-        <v>0.57253286868366859</v>
+        <v>0.57464466278737003</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D41" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E41" s="1">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F41" s="5">
-        <v>3.0000000000000001E-5</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="G41" s="1">
         <v>128</v>
@@ -6432,33 +6602,33 @@
         <v>0.1</v>
       </c>
       <c r="I41" s="1">
-        <v>0</v>
+        <v>3.8414325023195903E-2</v>
       </c>
       <c r="J41" s="1">
-        <v>0</v>
+        <v>3.0244455936177372E-2</v>
       </c>
       <c r="K41" s="1">
-        <v>0</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="L41" s="1">
-        <v>0.57265959131949939</v>
+        <v>0.57464466278737003</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D42" s="1">
         <v>2</v>
       </c>
       <c r="E42" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F42" s="5">
         <v>2.0000000000000002E-5</v>
@@ -6470,65 +6640,65 @@
         <v>0.1</v>
       </c>
       <c r="I42" s="1">
-        <v>0</v>
+        <v>3.8414325023195903E-2</v>
       </c>
       <c r="J42" s="1">
-        <v>0</v>
+        <v>3.0244455936177372E-2</v>
       </c>
       <c r="K42" s="1">
-        <v>0</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="L42" s="1">
-        <v>0.57253286868366859</v>
+        <v>0.57464466278737003</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D43" s="1">
         <v>2</v>
       </c>
       <c r="E43" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F43" s="5">
-        <v>3.0000000000000001E-5</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="G43" s="1">
         <v>128</v>
       </c>
       <c r="H43" s="1">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I43" s="1">
-        <v>0</v>
+        <v>3.8414325023195903E-2</v>
       </c>
       <c r="J43" s="1">
-        <v>0</v>
+        <v>3.0244455936177372E-2</v>
       </c>
       <c r="K43" s="1">
-        <v>0</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="L43" s="1">
-        <v>0.57265959131949939</v>
+        <v>0.57464466278737003</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D44" s="1">
         <v>2</v>
@@ -6537,74 +6707,74 @@
         <v>32</v>
       </c>
       <c r="F44" s="5">
-        <v>2.0000000000000002E-5</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="G44" s="1">
         <v>128</v>
       </c>
       <c r="H44" s="1">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="I44" s="1">
-        <v>0</v>
+        <v>3.8414325023195903E-2</v>
       </c>
       <c r="J44" s="1">
-        <v>0</v>
+        <v>3.0244455936177372E-2</v>
       </c>
       <c r="K44" s="1">
-        <v>0</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="L44" s="1">
-        <v>0.57262791066054175</v>
+        <v>0.57464466278737003</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D45" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E45" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F45" s="5">
-        <v>3.0000000000000001E-5</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="G45" s="1">
         <v>128</v>
       </c>
       <c r="H45" s="1">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I45" s="1">
-        <v>0</v>
+        <v>3.8414325023195903E-2</v>
       </c>
       <c r="J45" s="1">
-        <v>0</v>
+        <v>3.0244455936177372E-2</v>
       </c>
       <c r="K45" s="1">
-        <v>0</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="L45" s="1">
-        <v>0.57253286868366859</v>
+        <v>0.57464466278737003</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D46" s="1">
         <v>2</v>
@@ -6613,7 +6783,7 @@
         <v>32</v>
       </c>
       <c r="F46" s="5">
-        <v>2.0000000000000002E-5</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="G46" s="1">
         <v>128</v>
@@ -6622,36 +6792,36 @@
         <v>0.01</v>
       </c>
       <c r="I46" s="1">
-        <v>0</v>
+        <v>3.8414325023195903E-2</v>
       </c>
       <c r="J46" s="1">
-        <v>0</v>
+        <v>3.0244455936177372E-2</v>
       </c>
       <c r="K46" s="1">
-        <v>0</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="L46" s="1">
-        <v>0.57262791066054175</v>
+        <v>0.57464466278737003</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D47" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E47" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F47" s="5">
-        <v>2.0000000000000002E-5</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="G47" s="1">
         <v>128</v>
@@ -6660,74 +6830,74 @@
         <v>0.01</v>
       </c>
       <c r="I47" s="1">
-        <v>0</v>
+        <v>3.8414325023195903E-2</v>
       </c>
       <c r="J47" s="1">
-        <v>0</v>
+        <v>3.0244455936177372E-2</v>
       </c>
       <c r="K47" s="1">
-        <v>0</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="L47" s="1">
-        <v>0.57253286868366859</v>
+        <v>0.57464466278737003</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D48" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E48" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F48" s="5">
-        <v>3.0000000000000001E-5</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="G48" s="1">
         <v>128</v>
       </c>
       <c r="H48" s="1">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I48" s="1">
-        <v>0</v>
+        <v>3.8414325023195903E-2</v>
       </c>
       <c r="J48" s="1">
-        <v>0</v>
+        <v>3.0244455936177372E-2</v>
       </c>
       <c r="K48" s="1">
-        <v>0</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="L48" s="1">
-        <v>0.57253286868366859</v>
+        <v>0.57464466278737003</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D49" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E49" s="1">
         <v>32</v>
       </c>
       <c r="F49" s="5">
-        <v>5.0000000000000002E-5</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="G49" s="1">
         <v>128</v>
@@ -6736,36 +6906,36 @@
         <v>0.01</v>
       </c>
       <c r="I49" s="1">
-        <v>0</v>
+        <v>3.8414325023195903E-2</v>
       </c>
       <c r="J49" s="1">
-        <v>0</v>
+        <v>3.0244455936177372E-2</v>
       </c>
       <c r="K49" s="1">
-        <v>0</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="L49" s="1">
-        <v>0.57253286868366859</v>
+        <v>0.57464466278737003</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D50" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E50" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F50" s="5">
-        <v>5.0000000000000002E-5</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="G50" s="1">
         <v>128</v>
@@ -6774,36 +6944,36 @@
         <v>0.01</v>
       </c>
       <c r="I50" s="1">
-        <v>0</v>
+        <v>3.8414325023195903E-2</v>
       </c>
       <c r="J50" s="1">
-        <v>0</v>
+        <v>3.0244455936177372E-2</v>
       </c>
       <c r="K50" s="1">
-        <v>0</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="L50" s="1">
-        <v>0.57253286868366859</v>
+        <v>0.57464466278737003</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D51" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E51" s="1">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F51" s="5">
-        <v>2.0000000000000002E-5</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="G51" s="1">
         <v>128</v>
@@ -6812,27 +6982,27 @@
         <v>0.1</v>
       </c>
       <c r="I51" s="1">
-        <v>0</v>
+        <v>3.8414325023195903E-2</v>
       </c>
       <c r="J51" s="1">
-        <v>0</v>
+        <v>3.0244455936177372E-2</v>
       </c>
       <c r="K51" s="1">
-        <v>0</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="L51" s="1">
-        <v>0.57991446222081422</v>
+        <v>0.57464466278737003</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D52" s="1">
         <v>4</v>
@@ -6841,7 +7011,7 @@
         <v>32</v>
       </c>
       <c r="F52" s="5">
-        <v>2.0000000000000002E-5</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="G52" s="1">
         <v>128</v>
@@ -6850,30 +7020,30 @@
         <v>0.1</v>
       </c>
       <c r="I52" s="1">
-        <v>0</v>
+        <v>3.8414325023195903E-2</v>
       </c>
       <c r="J52" s="1">
-        <v>0</v>
+        <v>3.0244455936177372E-2</v>
       </c>
       <c r="K52" s="1">
-        <v>0</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="L52" s="1">
-        <v>0.57253286868366859</v>
+        <v>0.57464466278737003</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D53" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E53" s="1">
         <v>16</v>
@@ -6888,27 +7058,27 @@
         <v>0.1</v>
       </c>
       <c r="I53" s="1">
-        <v>0</v>
+        <v>3.8414325023195903E-2</v>
       </c>
       <c r="J53" s="1">
-        <v>0</v>
+        <v>3.0244455936177372E-2</v>
       </c>
       <c r="K53" s="1">
-        <v>0</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="L53" s="1">
-        <v>0.57253286868366859</v>
+        <v>0.57464466278737003</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D54" s="1">
         <v>3</v>
@@ -6923,36 +7093,36 @@
         <v>128</v>
       </c>
       <c r="H54" s="1">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="I54" s="1">
-        <v>0</v>
+        <v>3.8414325023195903E-2</v>
       </c>
       <c r="J54" s="1">
-        <v>0</v>
+        <v>3.0244455936177372E-2</v>
       </c>
       <c r="K54" s="1">
-        <v>0</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="L54" s="1">
-        <v>0.57253286868366859</v>
+        <v>0.57464466278737003</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D55" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E55" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F55" s="5">
         <v>2.0000000000000002E-5</v>
@@ -6961,25 +7131,25 @@
         <v>128</v>
       </c>
       <c r="H55" s="1">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="I55" s="1">
-        <v>0</v>
+        <v>3.8414325023195903E-2</v>
       </c>
       <c r="J55" s="1">
-        <v>0</v>
+        <v>3.0244455936177372E-2</v>
       </c>
       <c r="K55" s="1">
-        <v>0</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="L55" s="1">
-        <v>0.57253286868366859</v>
+        <v>0.57464466278737003</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D55" xr:uid="{4A524928-A98D-5945-914E-E5F36D4AA07D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L73">
-    <sortCondition descending="1" ref="I1:I73"/>
+  <autoFilter ref="D1" xr:uid="{4A524928-A98D-5945-914E-E5F36D4AA07D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L1048576">
+    <sortCondition descending="1" ref="I1:I1048576"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
